--- a/England 2026/incd_tbl.xlsx
+++ b/England 2026/incd_tbl.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65,7 +65,7 @@
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="10.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
@@ -90,262 +90,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>11.347301386960021</v>
+        <v>10.844516223301909</v>
       </c>
       <c r="B1" s="0">
-        <v>10.454503962927822</v>
+        <v>9.9379482936889438</v>
       </c>
       <c r="C1" s="0">
-        <v>9.6309606798494425</v>
+        <v>9.1112377092064634</v>
       </c>
       <c r="D1" s="0">
-        <v>9.1163278522964397</v>
+        <v>8.5954438328424629</v>
       </c>
       <c r="E1" s="0">
-        <v>8.8826739706186579</v>
+        <v>8.359478635847557</v>
       </c>
       <c r="F1" s="0">
-        <v>8.6198166718301348</v>
+        <v>8.0975678771514836</v>
       </c>
       <c r="G1" s="0">
-        <v>8.4205221338624021</v>
+        <v>7.9067622702830578</v>
       </c>
       <c r="H1" s="0">
-        <v>8.8709273527150625</v>
+        <v>8.4280112485773184</v>
       </c>
       <c r="I1" s="0">
-        <v>9.8068576809349732</v>
+        <v>9.4512769942782082</v>
       </c>
       <c r="J1" s="0">
-        <v>10.45244529472383</v>
+        <v>10.059944639406408</v>
       </c>
       <c r="K1" s="0">
-        <v>10.297435374431931</v>
+        <v>9.7456940185883916</v>
       </c>
       <c r="L1" s="0">
-        <v>10.275968773389657</v>
+        <v>9.7071557732318237</v>
       </c>
       <c r="M1" s="0">
-        <v>10.259914689797361</v>
+        <v>9.6857483781767169</v>
       </c>
       <c r="N1" s="0">
-        <v>10.239839667335723</v>
+        <v>9.6583362039038132</v>
       </c>
       <c r="O1" s="0">
-        <v>10.218951295689669</v>
+        <v>9.6298166987383276</v>
       </c>
       <c r="P1" s="0">
-        <v>10.198758822040956</v>
+        <v>9.6020560023134163</v>
       </c>
       <c r="Q1" s="0">
-        <v>10.173978000748027</v>
+        <v>9.575784158924499</v>
       </c>
       <c r="R1" s="0">
-        <v>10.149581153058502</v>
+        <v>9.5512600637132277</v>
       </c>
       <c r="S1" s="0">
-        <v>10.1277787662974</v>
+        <v>9.5285365197909293</v>
       </c>
       <c r="T1" s="0">
-        <v>10.108265555333952</v>
+        <v>9.5075547060756023</v>
       </c>
       <c r="U1" s="0">
-        <v>10.090668672503316</v>
+        <v>9.4882049457057214</v>
       </c>
       <c r="V1" s="0">
-        <v>10.07479379706445</v>
+        <v>9.4703535397322209</v>
       </c>
       <c r="W1" s="0">
-        <v>10.060462987007185</v>
+        <v>9.4538567182265663</v>
       </c>
       <c r="X1" s="0">
-        <v>10.047483777331076</v>
+        <v>9.4385738522340308</v>
       </c>
       <c r="Y1" s="0">
-        <v>10.035687853754533</v>
+        <v>9.424371546664414</v>
       </c>
       <c r="Z1" s="0">
-        <v>10.024928295076425</v>
+        <v>9.4111268624387172</v>
       </c>
       <c r="AA1" s="0">
-        <v>10.015077036206078</v>
+        <v>9.398729080461548</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>11.77165111414522</v>
+        <v>11.877427748784047</v>
       </c>
       <c r="B2" s="0">
-        <v>10.885579754284375</v>
+        <v>10.908563108108515</v>
       </c>
       <c r="C2" s="0">
-        <v>10.056936285301035</v>
+        <v>10.020654879047406</v>
       </c>
       <c r="D2" s="0">
-        <v>9.5324155660250352</v>
+        <v>9.4662077295226954</v>
       </c>
       <c r="E2" s="0">
-        <v>9.2675269815294428</v>
+        <v>9.2130073737036753</v>
       </c>
       <c r="F2" s="0">
-        <v>8.9922326865357594</v>
+        <v>8.9244193911582883</v>
       </c>
       <c r="G2" s="0">
-        <v>8.7732251075719177</v>
+        <v>8.7026070100774877</v>
       </c>
       <c r="H2" s="0">
-        <v>9.1850570691558637</v>
+        <v>9.2460677010700643</v>
       </c>
       <c r="I2" s="0">
-        <v>10.107495915644407</v>
+        <v>10.319411064577873</v>
       </c>
       <c r="J2" s="0">
-        <v>10.759004813883564</v>
+        <v>10.963531913970748</v>
       </c>
       <c r="K2" s="0">
-        <v>10.554294693454978</v>
+        <v>10.631212235509658</v>
       </c>
       <c r="L2" s="0">
-        <v>10.49182737581431</v>
+        <v>10.582918320691901</v>
       </c>
       <c r="M2" s="0">
-        <v>10.450000614978771</v>
+        <v>10.556063360892237</v>
       </c>
       <c r="N2" s="0">
-        <v>10.417377539456702</v>
+        <v>10.529487206280939</v>
       </c>
       <c r="O2" s="0">
-        <v>10.391021134754178</v>
+        <v>10.5020603661845</v>
       </c>
       <c r="P2" s="0">
-        <v>10.365227295157124</v>
+        <v>10.475413536026878</v>
       </c>
       <c r="Q2" s="0">
-        <v>10.340563840585345</v>
+        <v>10.45022896630317</v>
       </c>
       <c r="R2" s="0">
-        <v>10.317302369586706</v>
+        <v>10.426785727520697</v>
       </c>
       <c r="S2" s="0">
-        <v>10.295554627360774</v>
+        <v>10.405156935158733</v>
       </c>
       <c r="T2" s="0">
-        <v>10.275330296048597</v>
+        <v>10.385307905483197</v>
       </c>
       <c r="U2" s="0">
-        <v>10.256580058406119</v>
+        <v>10.367141466266563</v>
       </c>
       <c r="V2" s="0">
-        <v>10.239220243416785</v>
+        <v>10.350530221264849</v>
       </c>
       <c r="W2" s="0">
-        <v>10.223149027372111</v>
+        <v>10.335334655985106</v>
       </c>
       <c r="X2" s="0">
-        <v>10.20825705613959</v>
+        <v>10.321413151436218</v>
       </c>
       <c r="Y2" s="0">
-        <v>10.194434607834593</v>
+        <v>10.308629174821247</v>
       </c>
       <c r="Z2" s="0">
-        <v>10.181855147158913</v>
+        <v>10.296855094438181</v>
       </c>
       <c r="AA2" s="0">
-        <v>10.174679175901421</v>
+        <v>10.285974193557053</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>12.086806947435159</v>
+        <v>12.509011056149573</v>
       </c>
       <c r="B3" s="0">
-        <v>11.130885597756036</v>
+        <v>11.482052228974633</v>
       </c>
       <c r="C3" s="0">
-        <v>10.28618341076716</v>
+        <v>10.542165939779661</v>
       </c>
       <c r="D3" s="0">
-        <v>9.7802141663484825</v>
+        <v>9.9468320606150264</v>
       </c>
       <c r="E3" s="0">
-        <v>9.540502667192488</v>
+        <v>9.6612286475170031</v>
       </c>
       <c r="F3" s="0">
-        <v>9.2669915682210515</v>
+        <v>9.3433398302568396</v>
       </c>
       <c r="G3" s="0">
-        <v>9.0527962652444494</v>
+        <v>9.1084722446249629</v>
       </c>
       <c r="H3" s="0">
-        <v>9.4372404495201589</v>
+        <v>9.6501119343113828</v>
       </c>
       <c r="I3" s="0">
-        <v>10.494338689836615</v>
+        <v>10.752675680898596</v>
       </c>
       <c r="J3" s="0">
-        <v>11.251091074130811</v>
+        <v>11.440108190522142</v>
       </c>
       <c r="K3" s="0">
-        <v>11.102139979890151</v>
+        <v>11.082722783634297</v>
       </c>
       <c r="L3" s="0">
-        <v>11.078342038253641</v>
+        <v>11.022275573951291</v>
       </c>
       <c r="M3" s="0">
-        <v>11.061870013128466</v>
+        <v>10.989360441527115</v>
       </c>
       <c r="N3" s="0">
-        <v>11.041553803544325</v>
+        <v>10.954520242439008</v>
       </c>
       <c r="O3" s="0">
-        <v>11.020357595553605</v>
+        <v>10.920293465913593</v>
       </c>
       <c r="P3" s="0">
-        <v>10.999549434040915</v>
+        <v>10.887684211239712</v>
       </c>
       <c r="Q3" s="0">
-        <v>10.979770678837548</v>
+        <v>10.857053285032283</v>
       </c>
       <c r="R3" s="0">
-        <v>10.961341394956342</v>
+        <v>10.828493130503167</v>
       </c>
       <c r="S3" s="0">
-        <v>10.944399619244086</v>
+        <v>10.801965484126406</v>
       </c>
       <c r="T3" s="0">
-        <v>10.928965156132223</v>
+        <v>10.777369511853735</v>
       </c>
       <c r="U3" s="0">
-        <v>10.91498808634443</v>
+        <v>10.754572095865433</v>
       </c>
       <c r="V3" s="0">
-        <v>10.902377998736892</v>
+        <v>10.733428522932163</v>
       </c>
       <c r="W3" s="0">
-        <v>10.891023359064096</v>
+        <v>10.713792850698242</v>
       </c>
       <c r="X3" s="0">
-        <v>10.880803803913603</v>
+        <v>10.695523429436589</v>
       </c>
       <c r="Y3" s="0">
-        <v>10.871598723554358</v>
+        <v>10.680867547098739</v>
       </c>
       <c r="Z3" s="0">
-        <v>10.863292239041126</v>
+        <v>10.667342379531252</v>
       </c>
       <c r="AA3" s="0">
-        <v>10.855776539596459</v>
+        <v>10.654771538173289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>11.347301386960021</v>
+        <v>8.5954438039823398</v>
       </c>
       <c r="B4" s="0">
-        <v>10.454503962927822</v>
+        <v>9.4662077193616909</v>
       </c>
       <c r="C4" s="0">
-        <v>9.6309606798494425</v>
+        <v>9.9468318711430612</v>
       </c>
       <c r="D4" s="0">
         <v>9.1163278522964397</v>
@@ -422,13 +422,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>11.77165111414522</v>
+        <v>8.3594786076326031</v>
       </c>
       <c r="B5" s="0">
-        <v>10.885579754284375</v>
+        <v>9.2130073636349632</v>
       </c>
       <c r="C5" s="0">
-        <v>10.056936285301035</v>
+        <v>9.6612285104853086</v>
       </c>
       <c r="D5" s="0">
         <v>9.5324155660250352</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>12.086806947435159</v>
+        <v>8.097571246065792</v>
       </c>
       <c r="B6" s="0">
-        <v>11.130885597756036</v>
+        <v>8.9244194382927553</v>
       </c>
       <c r="C6" s="0">
-        <v>10.28618341076716</v>
+        <v>9.3433358579822734</v>
       </c>
       <c r="D6" s="0">
         <v>9.7802141663484825</v>
@@ -588,13 +588,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>11.347301386960021</v>
+        <v>7.9067622134855844</v>
       </c>
       <c r="B7" s="0">
-        <v>10.454503962927822</v>
+        <v>8.7026071277739785</v>
       </c>
       <c r="C7" s="0">
-        <v>9.6309606798494425</v>
+        <v>9.10847506922957</v>
       </c>
       <c r="D7" s="0">
         <v>9.1163278522964397</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>11.77165111414522</v>
+        <v>8.4280102484644583</v>
       </c>
       <c r="B8" s="0">
-        <v>10.885579754284375</v>
+        <v>9.2460707886965547</v>
       </c>
       <c r="C8" s="0">
-        <v>10.056936285301035</v>
+        <v>9.6501143813637587</v>
       </c>
       <c r="D8" s="0">
         <v>9.5324155660250352</v>
@@ -754,13 +754,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>12.086806947435159</v>
+        <v>9.451280214325287</v>
       </c>
       <c r="B9" s="0">
-        <v>11.130885597756036</v>
+        <v>10.319411492864839</v>
       </c>
       <c r="C9" s="0">
-        <v>10.28618341076716</v>
+        <v>10.752674009029411</v>
       </c>
       <c r="D9" s="0">
         <v>9.7802141663484825</v>
@@ -837,13 +837,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>11.347301386960021</v>
+        <v>10.05994590398921</v>
       </c>
       <c r="B10" s="0">
-        <v>10.454503962927822</v>
+        <v>10.96353224464325</v>
       </c>
       <c r="C10" s="0">
-        <v>9.6309606798494425</v>
+        <v>11.440108233108223</v>
       </c>
       <c r="D10" s="0">
         <v>9.1163278522964397</v>
@@ -920,13 +920,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>11.77165111414522</v>
+        <v>9.7456956799205656</v>
       </c>
       <c r="B11" s="0">
-        <v>10.885579754284375</v>
+        <v>10.631212512896658</v>
       </c>
       <c r="C11" s="0">
-        <v>10.056936285301035</v>
+        <v>11.082721219304769</v>
       </c>
       <c r="D11" s="0">
         <v>9.5324155660250352</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>12.086806947435159</v>
+        <v>9.7071568814991629</v>
       </c>
       <c r="B12" s="0">
-        <v>11.130885597756036</v>
+        <v>10.582918549472272</v>
       </c>
       <c r="C12" s="0">
-        <v>10.28618341076716</v>
+        <v>11.022274147965094</v>
       </c>
       <c r="D12" s="0">
         <v>9.7802141663484825</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>11.347301386960021</v>
+        <v>9.6857481685702975</v>
       </c>
       <c r="B13" s="0">
-        <v>10.454503962927822</v>
+        <v>10.556063619266631</v>
       </c>
       <c r="C13" s="0">
-        <v>9.6309606798494425</v>
+        <v>10.989359184768309</v>
       </c>
       <c r="D13" s="0">
         <v>9.1163278522964397</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>11.77165111414522</v>
+        <v>9.6583367335683992</v>
       </c>
       <c r="B14" s="0">
-        <v>10.885579754284375</v>
+        <v>10.529487424782483</v>
       </c>
       <c r="C14" s="0">
-        <v>10.056936285301035</v>
+        <v>10.954519144293071</v>
       </c>
       <c r="D14" s="0">
         <v>9.5324155660250352</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>12.086806947435159</v>
+        <v>9.629816237892733</v>
       </c>
       <c r="B15" s="0">
-        <v>11.130885597756036</v>
+        <v>10.502060557955398</v>
       </c>
       <c r="C15" s="0">
-        <v>10.28618341076716</v>
+        <v>10.920292510339333</v>
       </c>
       <c r="D15" s="0">
         <v>9.7802141663484825</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>11.347301386960021</v>
+        <v>9.6020561261882307</v>
       </c>
       <c r="B16" s="0">
-        <v>10.454503962927822</v>
+        <v>10.475413709215777</v>
       </c>
       <c r="C16" s="0">
-        <v>9.6309606798494425</v>
+        <v>10.887683381502367</v>
       </c>
       <c r="D16" s="0">
         <v>9.1163278522964397</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>11.77165111414522</v>
+        <v>9.5757842870622927</v>
       </c>
       <c r="B17" s="0">
-        <v>10.885579754284375</v>
+        <v>10.450229126585638</v>
       </c>
       <c r="C17" s="0">
-        <v>10.056936285301035</v>
+        <v>10.85705256498559</v>
       </c>
       <c r="D17" s="0">
         <v>9.5324155660250352</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>12.086806947435159</v>
+        <v>9.5512601526152778</v>
       </c>
       <c r="B18" s="0">
-        <v>11.130885597756036</v>
+        <v>10.426785878807994</v>
       </c>
       <c r="C18" s="0">
-        <v>10.28618341076716</v>
+        <v>10.828492505416182</v>
       </c>
       <c r="D18" s="0">
         <v>9.7802141663484825</v>
@@ -1580,6 +1580,105 @@
       </c>
       <c r="AA18" s="0">
         <v>5.8725513471193365</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>9.5285365519491982</v>
+      </c>
+      <c r="B19" s="0">
+        <v>10.405157080247646</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10.801964940797195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>9.507554758070798</v>
+      </c>
+      <c r="B20" s="0">
+        <v>10.3853080464824</v>
+      </c>
+      <c r="C20" s="0">
+        <v>10.777369038631797</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>9.4882049783757019</v>
+      </c>
+      <c r="B21" s="0">
+        <v>10.367141604581917</v>
+      </c>
+      <c r="C21" s="0">
+        <v>10.754571682403856</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>9.4703535615486629</v>
+      </c>
+      <c r="B22" s="0">
+        <v>10.350530357949506</v>
+      </c>
+      <c r="C22" s="0">
+        <v>10.733428160359217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>9.4538567219816461</v>
+      </c>
+      <c r="B23" s="0">
+        <v>10.335334791777827</v>
+      </c>
+      <c r="C23" s="0">
+        <v>10.713792531276942</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>9.4385738490391944</v>
+      </c>
+      <c r="B24" s="0">
+        <v>10.321413286890364</v>
+      </c>
+      <c r="C24" s="0">
+        <v>10.695523146449224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>9.4243715393264207</v>
+      </c>
+      <c r="B25" s="0">
+        <v>10.308629310178643</v>
+      </c>
+      <c r="C25" s="0">
+        <v>10.680867655232404</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>9.4111268546297939</v>
+      </c>
+      <c r="B26" s="0">
+        <v>10.296855229993552</v>
+      </c>
+      <c r="C26" s="0">
+        <v>10.667342501664036</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>9.3987290616473125</v>
+      </c>
+      <c r="B27" s="0">
+        <v>10.285974329422345</v>
+      </c>
+      <c r="C27" s="0">
+        <v>10.654771671804918</v>
       </c>
     </row>
   </sheetData>
